--- a/src/ngDomo.xlsx
+++ b/src/ngDomo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Triggers" sheetId="1" r:id="rId1"/>
     <sheet name="Action" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="229">
   <si>
     <t>Comment</t>
   </si>
@@ -133,9 +133,6 @@
     <t>2d1</t>
   </si>
   <si>
-    <t>rxir sony 0</t>
-  </si>
-  <si>
     <t>rxir sony play</t>
   </si>
   <si>
@@ -646,36 +643,6 @@
     <t>efd541</t>
   </si>
   <si>
-    <t>rxrf rf.c1.on</t>
-  </si>
-  <si>
-    <t>rxrf rf.c1.off</t>
-  </si>
-  <si>
-    <t>rxrf rf.c2.on</t>
-  </si>
-  <si>
-    <t>rxrf rf.c2.off</t>
-  </si>
-  <si>
-    <t>rxrf rf.c3.on</t>
-  </si>
-  <si>
-    <t>rxrf rf.c3.off</t>
-  </si>
-  <si>
-    <t>rxrf rf.c4.on</t>
-  </si>
-  <si>
-    <t>rxrf rf.c4.off</t>
-  </si>
-  <si>
-    <t>rxrf rf.c5.on</t>
-  </si>
-  <si>
-    <t>rxrf rf.c5.off</t>
-  </si>
-  <si>
     <t>sonOff01.on</t>
   </si>
   <si>
@@ -692,12 +659,60 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>rf.d.1.on</t>
+  </si>
+  <si>
+    <t>rf.d.1.off</t>
+  </si>
+  <si>
+    <t>rf.d.2.on</t>
+  </si>
+  <si>
+    <t>rf.d.2.off</t>
+  </si>
+  <si>
+    <t>rf.d.3.on</t>
+  </si>
+  <si>
+    <t>rf.d.3.off</t>
+  </si>
+  <si>
+    <t>rf.d.4.on</t>
+  </si>
+  <si>
+    <t>rf.d.4.off</t>
+  </si>
+  <si>
+    <t>rf.d.5.on</t>
+  </si>
+  <si>
+    <t>rf.d.5.off</t>
+  </si>
+  <si>
+    <t>dfd541</t>
+  </si>
+  <si>
+    <t>rxir sony &gt;10</t>
+  </si>
+  <si>
+    <t>e51</t>
+  </si>
+  <si>
+    <t>rxir sony 10</t>
+  </si>
+  <si>
+    <t>rxir sony clear</t>
+  </si>
+  <si>
+    <t>f11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1031,7 +1046,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,26 +1054,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.109375" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -1075,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -1087,12 +1102,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1107,7 +1122,7 @@
         <v>rxir sony 1-&gt;salon.1.on</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G22" si="0">IF(C3&lt;&gt;"","rxIR proto=4 code="&amp;C3&amp;" (12 bits)",IF(D3&lt;&gt;"","rxRF 1 "&amp;D3,""))</f>
+        <f t="shared" ref="G3:G24" si="0">IF(C3&lt;&gt;"","rxIR proto=4 code="&amp;C3&amp;" (12 bits)",IF(D3&lt;&gt;"","rxRF 1 "&amp;D3,""))</f>
         <v>rxIR proto=4 code=11 (12 bits)</v>
       </c>
       <c r="H3" t="str">
@@ -1127,7 +1142,7 @@
         <v>{'comment':'rxir sony 1-&gt;salon.1.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.1.on'}},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1138,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F37" si="1">IF(B4&lt;&gt;"",B4&amp;"-&gt;"&amp;E4,"")</f>
+        <f t="shared" ref="F4:F39" si="1">IF(B4&lt;&gt;"",B4&amp;"-&gt;"&amp;E4,"")</f>
         <v>rxir sony 2-&gt;salon.2.on</v>
       </c>
       <c r="G4" t="str">
@@ -1146,23 +1161,23 @@
         <v>rxIR proto=4 code=811 (12 bits)</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H37" si="2">IF(OR(C4&lt;&gt;"", D4&lt;&gt;""),"home/domo/espIR01/event","")</f>
+        <f t="shared" ref="H4:H28" si="2">IF(OR(C4&lt;&gt;"", D4&lt;&gt;""),"home/domo/espIR01/event","")</f>
         <v>home/domo/espIR01/event</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I37" si="3">G4</f>
+        <f t="shared" ref="I4:I28" si="3">G4</f>
         <v>rxIR proto=4 code=811 (12 bits)</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J37" si="4">IF(E4&lt;&gt;"",E4,"")</f>
+        <f t="shared" ref="J4:J28" si="4">IF(E4&lt;&gt;"",E4,"")</f>
         <v>salon.2.on</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K37" si="5">IF(E4&lt;&gt;"","{'comment':'"&amp;F4&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H4&amp;"', 'payload':'"&amp;I4&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J4&amp;"'}},","")</f>
+        <f t="shared" ref="K4:K28" si="5">IF(E4&lt;&gt;"","{'comment':'"&amp;F4&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H4&amp;"', 'payload':'"&amp;I4&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J4&amp;"'}},","")</f>
         <v>{'comment':'rxir sony 2-&gt;salon.2.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=811 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.2.on'}},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1197,7 +1212,7 @@
         <v>{'comment':'rxir sony 3-&gt;salon.3.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=411 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.3.on'}},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1232,7 +1247,7 @@
         <v>{'comment':'rxir sony 4-&gt;salon.1.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=c11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.1.off'}},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>{'comment':'rxir sony 5-&gt;salon.2.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=211 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.2.off'}},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +1317,7 @@
         <v>{'comment':'rxir sony 6-&gt;salon.3.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=a11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.3.off'}},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1337,7 +1352,7 @@
         <v>{'comment':'rxir sony 7-&gt;salon.4.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=611 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.4.on'}},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1372,23 +1387,23 @@
         <v>{'comment':'rxir sony 8-&gt;salon.5.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=e11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.5.on'}},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="3">
-        <v>111</v>
+        <v>224</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
-        <v>rxir sony 9-&gt;salon.4.off</v>
+        <v>rxir sony &gt;10-&gt;salon.4.off</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>rxIR proto=4 code=111 (12 bits)</v>
+        <v>rxIR proto=4 code=e51 (12 bits)</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="2"/>
@@ -1396,7 +1411,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="3"/>
-        <v>rxIR proto=4 code=111 (12 bits)</v>
+        <v>rxIR proto=4 code=e51 (12 bits)</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="4"/>
@@ -1404,12 +1419,12 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxir sony 9-&gt;salon.4.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=111 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.4.off'}},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>{'comment':'rxir sony &gt;10-&gt;salon.4.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=e51 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.4.off'}},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c r="C12" s="3">
         <v>51</v>
@@ -1419,7 +1434,7 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>rxir sony 0-&gt;salon.5.off</v>
+        <v>rxir sony 10-&gt;salon.5.off</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
@@ -1439,1251 +1454,1321 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxir sony 0-&gt;salon.5.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=51 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.5.off'}},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+        <v>{'comment':'rxir sony 10-&gt;salon.5.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=51 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.5.off'}},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C13" s="3">
-        <v>491</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F13" t="str">
+        <f t="shared" ref="F13:F14" si="6">IF(B13&lt;&gt;"",B13&amp;"-&gt;"&amp;E13,"")</f>
+        <v>rxir sony 9-&gt;salon.on</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" ref="G13:G14" si="7">IF(C13&lt;&gt;"","rxIR proto=4 code="&amp;C13&amp;" (12 bits)",IF(D13&lt;&gt;"","rxRF 1 "&amp;D13,""))</f>
+        <v>rxIR proto=4 code=111 (12 bits)</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ref="H13:H14" si="8">IF(OR(C13&lt;&gt;"", D13&lt;&gt;""),"home/domo/espIR01/event","")</f>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" ref="I13:I14" si="9">G13</f>
+        <v>rxIR proto=4 code=111 (12 bits)</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" ref="J13:J14" si="10">IF(E13&lt;&gt;"",E13,"")</f>
+        <v>salon.on</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" ref="K13:K14" si="11">IF(E13&lt;&gt;"","{'comment':'"&amp;F13&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H13&amp;"', 'payload':'"&amp;I13&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J13&amp;"'}},","")</f>
+        <v>{'comment':'rxir sony 9-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=111 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="6"/>
+        <v>rxir sony clear-&gt;salon.off</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="7"/>
+        <v>rxIR proto=4 code=f11 (12 bits)</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="8"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="9"/>
+        <v>rxIR proto=4 code=f11 (12 bits)</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="10"/>
+        <v>salon.off</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="11"/>
+        <v>{'comment':'rxir sony clear-&gt;salon.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=f11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.off'}},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony plus-&gt;ampli.volp</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>rxIR proto=4 code=491 (12 bits)</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>rxIR proto=4 code=111 (12 bits)</v>
+      </c>
+      <c r="H15" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I13" t="str">
-        <f t="shared" si="3"/>
-        <v>rxIR proto=4 code=491 (12 bits)</v>
-      </c>
-      <c r="J13" t="str">
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>rxIR proto=4 code=111 (12 bits)</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="4"/>
         <v>ampli.volp</v>
       </c>
-      <c r="K13" t="str">
+      <c r="K15" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxir sony plus-&gt;ampli.volp', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=491 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.volp'}},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>{'comment':'rxir sony plus-&gt;ampli.volp', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=111 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.volp'}},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony minus-&gt;ampli.volm</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G16" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=c91 (12 bits)</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H16" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I16" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=c91 (12 bits)</v>
       </c>
-      <c r="J14" t="str">
+      <c r="J16" t="str">
         <f t="shared" si="4"/>
         <v>ampli.volm</v>
       </c>
-      <c r="K14" t="str">
+      <c r="K16" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony minus-&gt;ampli.volm', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=c91 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.volm'}},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" t="str">
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony play-&gt;tvon</v>
       </c>
-      <c r="G15" t="str">
+      <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=4d1 (12 bits)</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H17" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I17" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=4d1 (12 bits)</v>
       </c>
-      <c r="J15" t="str">
+      <c r="J17" t="str">
         <f t="shared" si="4"/>
         <v>tvon</v>
       </c>
-      <c r="K15" t="str">
+      <c r="K17" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony play-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=4d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="3" t="s">
+    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" t="str">
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony pause-&gt;tvoff</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=9d1 (12 bits)</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H18" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I18" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=9d1 (12 bits)</v>
       </c>
-      <c r="J16" t="str">
+      <c r="J18" t="str">
         <f t="shared" si="4"/>
         <v>tvoff</v>
       </c>
-      <c r="K16" t="str">
+      <c r="K18" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony pause-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=9d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3" t="s">
+    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" t="str">
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony stop-&gt;ampli.mute</v>
       </c>
-      <c r="G17" t="str">
+      <c r="G19" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=1d1 (12 bits)</v>
       </c>
-      <c r="H17" t="str">
+      <c r="H19" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I17" t="str">
+      <c r="I19" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=1d1 (12 bits)</v>
       </c>
-      <c r="J17" t="str">
+      <c r="J19" t="str">
         <f t="shared" si="4"/>
         <v>ampli.mute</v>
       </c>
-      <c r="K17" t="str">
+      <c r="K19" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony stop-&gt;ampli.mute', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=1d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.mute'}},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
+    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" t="str">
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony prev-&gt;ampli.off</v>
       </c>
-      <c r="G18" t="str">
+      <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=d1 (12 bits)</v>
       </c>
-      <c r="H18" t="str">
+      <c r="H20" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I18" t="str">
+      <c r="I20" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=d1 (12 bits)</v>
       </c>
-      <c r="J18" t="str">
+      <c r="J20" t="str">
         <f t="shared" si="4"/>
         <v>ampli.off</v>
       </c>
-      <c r="K18" t="str">
+      <c r="K20" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony prev-&gt;ampli.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.off'}},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="3" t="s">
+    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" t="str">
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony next-&gt;ampli.on</v>
       </c>
-      <c r="G19" t="str">
+      <c r="G21" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=8d1 (12 bits)</v>
       </c>
-      <c r="H19" t="str">
+      <c r="H21" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I19" t="str">
+      <c r="I21" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=8d1 (12 bits)</v>
       </c>
-      <c r="J19" t="str">
+      <c r="J21" t="str">
         <f t="shared" si="4"/>
         <v>ampli.on</v>
       </c>
-      <c r="K19" t="str">
+      <c r="K21" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony next-&gt;ampli.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=8d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.on'}},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="3" t="s">
+    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" t="str">
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony fbw-&gt;salon.off</v>
       </c>
-      <c r="G20" t="str">
+      <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=cd1 (12 bits)</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H22" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I22" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=cd1 (12 bits)</v>
       </c>
-      <c r="J20" t="str">
+      <c r="J22" t="str">
         <f t="shared" si="4"/>
         <v>salon.off</v>
       </c>
-      <c r="K20" t="str">
+      <c r="K22" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony fbw-&gt;salon.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=cd1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.off'}},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" t="str">
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="1"/>
         <v>rxir sony ffw-&gt;salon.on</v>
       </c>
-      <c r="G21" t="str">
+      <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>rxIR proto=4 code=2d1 (12 bits)</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H23" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I23" t="str">
         <f t="shared" si="3"/>
         <v>rxIR proto=4 code=2d1 (12 bits)</v>
       </c>
-      <c r="J21" t="str">
+      <c r="J23" t="str">
         <f t="shared" si="4"/>
         <v>salon.on</v>
       </c>
-      <c r="K21" t="str">
+      <c r="K23" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxir sony ffw-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=2d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>221</v>
-      </c>
-      <c r="F22" t="str">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G22" t="str">
+      <c r="G24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" t="str">
+      <c r="H24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I22" t="str">
+      <c r="I24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J22" t="str">
+      <c r="J24" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K22" t="str">
+      <c r="K24" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" t="str">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="str">
         <f t="shared" si="1"/>
         <v>rxrf rf.b4.on-&gt;tvon</v>
       </c>
-      <c r="G23" t="str">
-        <f>IF(C23&lt;&gt;"","rxIR proto=4 code="&amp;C23&amp;" (12 bits)",IF(D23&lt;&gt;"","rxRF 1 "&amp;D23,""))</f>
+      <c r="G25" t="str">
+        <f>IF(C25&lt;&gt;"","rxIR proto=4 code="&amp;C25&amp;" (12 bits)",IF(D25&lt;&gt;"","rxRF 1 "&amp;D25,""))</f>
         <v>rxRF 1 7fd514</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H25" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I23" t="str">
+      <c r="I25" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd514</v>
       </c>
-      <c r="J23" t="str">
+      <c r="J25" t="str">
         <f t="shared" si="4"/>
         <v>tvon</v>
       </c>
-      <c r="K23" t="str">
+      <c r="K25" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxrf rf.b4.on-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd514', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" t="str">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="str">
         <f t="shared" si="1"/>
         <v>rxrf rf.b4.off-&gt;tvoff</v>
       </c>
-      <c r="G24" t="str">
-        <f t="shared" ref="G24:G37" si="6">IF(C24&lt;&gt;"","rxIR proto=4 code="&amp;C24&amp;" (12 bits)",IF(D24&lt;&gt;"","rxRF 1 "&amp;D24,""))</f>
+      <c r="G26" t="str">
+        <f t="shared" ref="G26:G39" si="12">IF(C26&lt;&gt;"","rxIR proto=4 code="&amp;C26&amp;" (12 bits)",IF(D26&lt;&gt;"","rxRF 1 "&amp;D26,""))</f>
         <v>rxRF 1 7fd511</v>
       </c>
-      <c r="H24" t="str">
+      <c r="H26" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I24" t="str">
+      <c r="I26" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd511</v>
       </c>
-      <c r="J24" t="str">
+      <c r="J26" t="str">
         <f t="shared" si="4"/>
         <v>tvoff</v>
       </c>
-      <c r="K24" t="str">
+      <c r="K26" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxrf rf.b4.off-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd511', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" t="s">
-        <v>218</v>
-      </c>
-      <c r="F25" t="str">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" t="str">
         <f t="shared" si="1"/>
         <v>rxrf rf.b5.on-&gt;sonOff01.on</v>
       </c>
-      <c r="G25" t="str">
-        <f t="shared" si="6"/>
+      <c r="G27" t="str">
+        <f t="shared" si="12"/>
         <v>rxRF 1 7fd544</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H27" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I27" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd544</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J27" t="str">
         <f t="shared" si="4"/>
         <v>sonOff01.on</v>
       </c>
-      <c r="K25" t="str">
+      <c r="K27" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxrf rf.b5.on-&gt;sonOff01.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd544', 'command':{'type':'cmdCommand', 'id':'sonOff01.on'}},</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" t="str">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F28" t="str">
         <f t="shared" si="1"/>
         <v>rxrf rf.b5.off-&gt;sonOff01.off</v>
       </c>
-      <c r="G26" t="str">
-        <f t="shared" si="6"/>
+      <c r="G28" t="str">
+        <f t="shared" si="12"/>
         <v>rxRF 1 7fd541</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H28" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I28" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd541</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J28" t="str">
         <f t="shared" si="4"/>
         <v>sonOff01.off</v>
       </c>
-      <c r="K26" t="str">
+      <c r="K28" t="str">
         <f t="shared" si="5"/>
         <v>{'comment':'rxrf rf.b5.off-&gt;sonOff01.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd541', 'command':{'type':'cmdCommand', 'id':'sonOff01.off'}},</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" ref="F30:F37" si="13">IF(B30&lt;&gt;"",B30&amp;"-&gt;"&amp;E30,"")</f>
+        <v>rf.d.1.on-&gt;tvon</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ref="G30:G39" si="14">IF(C30&lt;&gt;"","rxIR proto=4 code="&amp;C30&amp;" (12 bits)",IF(D30&lt;&gt;"","rxRF 1 "&amp;D30,""))</f>
+        <v>rxRF 1 dfc554</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ref="H30:H39" si="15">IF(OR(C30&lt;&gt;"", D30&lt;&gt;""),"home/domo/espIR01/event","")</f>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" ref="I30:I39" si="16">G30</f>
+        <v>rxRF 1 dfc554</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" ref="J30:J39" si="17">IF(E30&lt;&gt;"",E30,"")</f>
+        <v>tvon</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" ref="K30:K39" si="18">IF(E30&lt;&gt;"","{'comment':'"&amp;F30&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H30&amp;"', 'payload':'"&amp;I30&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J30&amp;"'}},","")</f>
+        <v>{'comment':'rf.d.1.on-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfc554', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>214</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.1.off-&gt;tvoff</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfc551</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfc551</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="17"/>
+        <v>tvoff</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.1.off-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfc551', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.2.on-&gt;hdmi.1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd154</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd154</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.1</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.2.on-&gt;hdmi.1', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd154', 'command':{'type':'cmdCommand', 'id':'hdmi.1'}},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.2.off-&gt;hdmi.2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd151</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd151</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.2</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.2.off-&gt;hdmi.2', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd151', 'command':{'type':'cmdCommand', 'id':'hdmi.2'}},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.3.on-&gt;hdmi.3</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd454</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd454</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.3</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.3.on-&gt;hdmi.3', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd454', 'command':{'type':'cmdCommand', 'id':'hdmi.3'}},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>218</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.3.off-&gt;hdmi.4</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd451</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd451</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.4</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.3.off-&gt;hdmi.4', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd451', 'command':{'type':'cmdCommand', 'id':'hdmi.4'}},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.4.on-&gt;hdmi.5</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd514</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd514</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.5</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.4.on-&gt;hdmi.5', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd514', 'command':{'type':'cmdCommand', 'id':'hdmi.5'}},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.4.off-&gt;ampli.mute</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd511</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd511</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="17"/>
+        <v>ampli.mute</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.4.off-&gt;ampli.mute', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd511', 'command':{'type':'cmdCommand', 'id':'ampli.mute'}},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>rf.d.5.on-&gt;salon.on</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd544</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd544</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="17"/>
+        <v>salon.on</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.5.on-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd544', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>rf.d.5.off-&gt;salon.off</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd541</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd541</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="17"/>
+        <v>salon.off</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.5.off-&gt;salon.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd541', 'command':{'type':'cmdCommand', 'id':'salon.off'}},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" ref="F28:F35" si="7">IF(B28&lt;&gt;"",B28&amp;"-&gt;"&amp;E28,"")</f>
-        <v>rxrf rf.c1.on-&gt;tvon</v>
-      </c>
-      <c r="G28" t="str">
-        <f t="shared" ref="G28:G35" si="8">IF(C28&lt;&gt;"","rxIR proto=4 code="&amp;C28&amp;" (12 bits)",IF(D28&lt;&gt;"","rxRF 1 "&amp;D28,""))</f>
-        <v>rxRF 1 bfc551</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" ref="H28:H35" si="9">IF(OR(C28&lt;&gt;"", D28&lt;&gt;""),"home/domo/espIR01/event","")</f>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfc551</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" ref="J28:J35" si="10">IF(E28&lt;&gt;"",E28,"")</f>
-        <v>tvon</v>
-      </c>
-      <c r="K28" t="str">
-        <f t="shared" ref="K28:K35" si="11">IF(E28&lt;&gt;"","{'comment':'"&amp;F28&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H28&amp;"', 'payload':'"&amp;I28&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J28&amp;"'}},","")</f>
-        <v>{'comment':'rxrf rf.c1.on-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfc551', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>159</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>161</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="7"/>
-        <v>rxrf rf.c1.off-&gt;tvoff</v>
-      </c>
-      <c r="G29" t="str">
-        <f t="shared" si="8"/>
-        <v>rxRF 1 bfc554</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="9"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfc554</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="10"/>
-        <v>tvoff</v>
-      </c>
-      <c r="K29" t="str">
-        <f t="shared" si="11"/>
-        <v>{'comment':'rxrf rf.c1.off-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfc554', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="7"/>
-        <v>rxrf rf.c2.on-&gt;hdmi.1</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="8"/>
-        <v>rxRF 1 bfd151</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="9"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd151</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" si="10"/>
-        <v>hdmi.1</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="11"/>
-        <v>{'comment':'rxrf rf.c2.on-&gt;hdmi.1', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd151', 'command':{'type':'cmdCommand', 'id':'hdmi.1'}},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>211</v>
-      </c>
-      <c r="D31" s="3" t="s">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E31" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="7"/>
-        <v>rxrf rf.c2.off-&gt;hdmi.2</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="8"/>
-        <v>rxRF 1 bfd154</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="9"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd154</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="10"/>
-        <v>hdmi.2</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="11"/>
-        <v>{'comment':'rxrf rf.c2.off-&gt;hdmi.2', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd154', 'command':{'type':'cmdCommand', 'id':'hdmi.2'}},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>212</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="7"/>
-        <v>rxrf rf.c3.on-&gt;hdmi.3</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="8"/>
-        <v>rxRF 1 bfd451</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="9"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd451</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="10"/>
-        <v>hdmi.3</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="11"/>
-        <v>{'comment':'rxrf rf.c3.on-&gt;hdmi.3', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd451', 'command':{'type':'cmdCommand', 'id':'hdmi.3'}},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>164</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E33" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="7"/>
-        <v>rxrf rf.c3.off-&gt;hdmi.4</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="8"/>
-        <v>rxRF 1 bfd454</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="9"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd454</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="10"/>
-        <v>hdmi.4</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="11"/>
-        <v>{'comment':'rxrf rf.c3.off-&gt;hdmi.4', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd454', 'command':{'type':'cmdCommand', 'id':'hdmi.4'}},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B34" t="s">
-        <v>214</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="7"/>
-        <v>rxrf rf.c4.on-&gt;hdmi.5</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="8"/>
-        <v>rxRF 1 bfd511</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="9"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd511</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="10"/>
-        <v>hdmi.5</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="11"/>
-        <v>{'comment':'rxrf rf.c4.on-&gt;hdmi.5', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd511', 'command':{'type':'cmdCommand', 'id':'hdmi.5'}},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D35" s="3" t="s">
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="7"/>
-        <v>rxrf rf.c4.off-&gt;ampli.mute</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="8"/>
-        <v>rxRF 1 bfd514</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="9"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd514</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="10"/>
-        <v>ampli.mute</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="11"/>
-        <v>{'comment':'rxrf rf.c4.off-&gt;ampli.mute', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd514', 'command':{'type':'cmdCommand', 'id':'ampli.mute'}},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" t="s">
-        <v>53</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="1"/>
-        <v>rxrf rf.c5.on-&gt;salon.on</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="6"/>
-        <v>rxRF 1 bfd541</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="2"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd541</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="4"/>
-        <v>salon.on</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="5"/>
-        <v>{'comment':'rxrf rf.c5.on-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd541', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>217</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>rxrf rf.c5.off-&gt;salon.off</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="6"/>
-        <v>rxRF 1 bfd544</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I37" t="str">
-        <f t="shared" si="3"/>
-        <v>rxRF 1 bfd544</v>
-      </c>
-      <c r="J37" t="str">
-        <f t="shared" si="4"/>
-        <v>salon.off</v>
-      </c>
-      <c r="K37" t="str">
-        <f t="shared" si="5"/>
-        <v>{'comment':'rxrf rf.c5.off-&gt;salon.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 bfd544', 'command':{'type':'cmdCommand', 'id':'salon.off'}},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>129</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>155</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>156</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>159</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>164</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>166</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B67" t="s">
-        <v>167</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" t="s">
-        <v>169</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>171</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B72" t="s">
-        <v>175</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B73" t="s">
-        <v>177</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B74" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B76" t="s">
-        <v>183</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>187</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
+      <c r="D81" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D79" s="3" t="s">
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
+      <c r="D82" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D80" s="3" t="s">
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+      <c r="D83" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D81" s="3" t="s">
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" t="s">
+      <c r="D84" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="3" t="s">
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" t="s">
+      <c r="D85" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D83" s="3" t="s">
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
+      <c r="D86" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D84" s="3" t="s">
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" t="s">
+      <c r="D87" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D85" s="3" t="s">
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" t="s">
+      <c r="D88" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D86" s="3" t="s">
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
+      <c r="D89" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D87" s="3" t="s">
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
+      <c r="D90" s="3" t="s">
         <v>206</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2696,64 +2781,64 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2:H51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="6.77734375" style="6" customWidth="1"/>
-    <col min="4" max="6" width="9.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875" style="5" customWidth="1"/>
+    <col min="1" max="3" width="6.7109375" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.5703125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" s="5">
         <v>550</v>
@@ -2778,24 +2863,24 @@
         <v>rf.a.1.on=ffc554</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="T2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="5">
         <v>550</v>
@@ -2820,24 +2905,24 @@
         <v>rf.a.1.off=ffc552</v>
       </c>
       <c r="P3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="6">
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5">
         <v>1150</v>
@@ -2862,24 +2947,24 @@
         <v>rf.a.2.on=ffd156</v>
       </c>
       <c r="P4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" s="6">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5">
         <v>1150</v>
@@ -2904,24 +2989,24 @@
         <v>rf.a.2.off=ffd154</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="5">
         <v>1450</v>
@@ -2946,24 +3031,24 @@
         <v>rf.a.3.on=ffd458</v>
       </c>
       <c r="P6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E7" s="5">
         <v>1450</v>
@@ -2990,16 +3075,16 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="5">
         <v>1510</v>
@@ -3024,7 +3109,7 @@
         <v>rf.a.4.on=ffd51a</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T8">
         <v>550</v>
@@ -3032,16 +3117,16 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" s="5">
         <v>1510</v>
@@ -3066,7 +3151,7 @@
         <v>rf.a.4.off=ffd518</v>
       </c>
       <c r="P9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T9">
         <v>1150</v>
@@ -3074,16 +3159,16 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6">
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5">
         <v>1540</v>
@@ -3108,7 +3193,7 @@
         <v>rf.a.5.on=ffd54c</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T10">
         <v>1450</v>
@@ -3116,16 +3201,16 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6">
         <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="5">
         <v>1540</v>
@@ -3150,7 +3235,7 @@
         <v>rf.a.5.off=ffd54a</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T11">
         <v>1510</v>
@@ -3158,16 +3243,16 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="5">
         <v>550</v>
@@ -3192,7 +3277,7 @@
         <v>rf.b.1.on=7fc554</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T12">
         <v>1540</v>
@@ -3200,16 +3285,16 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="5">
         <v>550</v>
@@ -3236,16 +3321,16 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" s="5">
         <v>1150</v>
@@ -3270,7 +3355,7 @@
         <v>rf.b.2.on=7fd154</v>
       </c>
       <c r="P14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T14">
         <v>4</v>
@@ -3278,16 +3363,16 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" s="5">
         <v>1150</v>
@@ -3312,7 +3397,7 @@
         <v>rf.b.2.off=7fd151</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -3320,16 +3405,16 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="6">
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" s="5">
         <v>1450</v>
@@ -3356,16 +3441,16 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="6">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" s="5">
         <v>1450</v>
@@ -3392,16 +3477,16 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="6">
         <v>4</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" s="5">
         <v>1510</v>
@@ -3428,16 +3513,16 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B19" s="6">
         <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="5">
         <v>1510</v>
@@ -3464,16 +3549,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B20" s="6">
         <v>5</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="5">
         <v>1540</v>
@@ -3500,16 +3585,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="5">
         <v>1540</v>
@@ -3536,16 +3621,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="5">
         <v>550</v>
@@ -3572,16 +3657,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" s="6">
         <v>1</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E23" s="5">
         <v>550</v>
@@ -3608,16 +3693,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="5">
         <v>1150</v>
@@ -3644,16 +3729,16 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E25" s="5">
         <v>1150</v>
@@ -3680,16 +3765,16 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B26" s="6">
         <v>3</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="5">
         <v>1450</v>
@@ -3716,16 +3801,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E27" s="5">
         <v>1450</v>
@@ -3752,16 +3837,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="5">
         <v>1510</v>
@@ -3788,16 +3873,16 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B29" s="6">
         <v>4</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" s="5">
         <v>1510</v>
@@ -3824,16 +3909,16 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B30" s="6">
         <v>5</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E30" s="5">
         <v>1540</v>
@@ -3860,16 +3945,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="6">
         <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E31" s="5">
         <v>1540</v>
@@ -3896,16 +3981,16 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32" s="5">
         <v>550</v>
@@ -3932,16 +4017,16 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="6">
         <v>1</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33" s="5">
         <v>550</v>
@@ -3968,16 +4053,16 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B34" s="6">
         <v>2</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34" s="5">
         <v>1150</v>
@@ -4004,16 +4089,16 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="6">
         <v>2</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="5">
         <v>1150</v>
@@ -4040,16 +4125,16 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" s="6">
         <v>3</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="5">
         <v>1450</v>
@@ -4076,16 +4161,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37" s="6">
         <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="5">
         <v>1450</v>
@@ -4112,16 +4197,16 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B38" s="6">
         <v>4</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38" s="5">
         <v>1510</v>
@@ -4148,16 +4233,16 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B39" s="6">
         <v>4</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="5">
         <v>1510</v>
@@ -4184,16 +4269,16 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="6">
         <v>5</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40" s="5">
         <v>1540</v>
@@ -4220,16 +4305,16 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="6">
         <v>5</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E41" s="5">
         <v>1540</v>
@@ -4243,29 +4328,29 @@
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>ffd54a</v>
+        <v>dfd541</v>
       </c>
       <c r="I41" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>0xffd54a</v>
+        <v>0xdfd541</v>
       </c>
       <c r="J41" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>rf.d.5.off=ffd54a</v>
+        <v>rf.d.5.off=dfd541</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="6">
         <v>1</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="5">
         <v>550</v>
@@ -4292,16 +4377,16 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="6">
         <v>1</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="5">
         <v>550</v>
@@ -4328,16 +4413,16 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B44" s="6">
         <v>2</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E44" s="5">
         <v>1150</v>
@@ -4364,16 +4449,16 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B45" s="6">
         <v>2</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="5">
         <v>1150</v>
@@ -4400,16 +4485,16 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="6">
         <v>3</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" s="5">
         <v>1450</v>
@@ -4436,16 +4521,16 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="6">
         <v>3</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E47" s="5">
         <v>1450</v>
@@ -4472,16 +4557,16 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" s="6">
         <v>4</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E48" s="5">
         <v>1510</v>
@@ -4508,16 +4593,16 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B49" s="6">
         <v>4</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="5">
         <v>1510</v>
@@ -4544,16 +4629,16 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B50" s="6">
         <v>5</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="5">
         <v>1540</v>
@@ -4580,16 +4665,16 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B51" s="6">
         <v>5</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E51" s="5">
         <v>1540</v>

--- a/src/ngDomo.xlsx
+++ b/src/ngDomo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Triggers" sheetId="1" r:id="rId1"/>
     <sheet name="Action" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="230">
   <si>
     <t>Comment</t>
   </si>
@@ -643,18 +643,9 @@
     <t>efd541</t>
   </si>
   <si>
-    <t>sonOff01.on</t>
-  </si>
-  <si>
-    <t>sonOff01.off</t>
-  </si>
-  <si>
     <t>Sony</t>
   </si>
   <si>
-    <t>Action A</t>
-  </si>
-  <si>
     <t>Action C</t>
   </si>
   <si>
@@ -707,12 +698,24 @@
   </si>
   <si>
     <t>f11</t>
+  </si>
+  <si>
+    <t>Action B</t>
+  </si>
+  <si>
+    <t>vpstudio.on</t>
+  </si>
+  <si>
+    <t>vpstudio.off</t>
+  </si>
+  <si>
+    <t>preamp.mute</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1054,26 +1057,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1"/>
-    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.109375" customWidth="1"/>
+    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1102,12 +1105,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>{'comment':'rxir sony 1-&gt;salon.1.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.1.on'}},</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F39" si="1">IF(B4&lt;&gt;"",B4&amp;"-&gt;"&amp;E4,"")</f>
+        <f t="shared" ref="F4:F45" si="1">IF(B4&lt;&gt;"",B4&amp;"-&gt;"&amp;E4,"")</f>
         <v>rxir sony 2-&gt;salon.2.on</v>
       </c>
       <c r="G4" t="str">
@@ -1161,23 +1164,23 @@
         <v>rxIR proto=4 code=811 (12 bits)</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H28" si="2">IF(OR(C4&lt;&gt;"", D4&lt;&gt;""),"home/domo/espIR01/event","")</f>
+        <f t="shared" ref="H4:H34" si="2">IF(OR(C4&lt;&gt;"", D4&lt;&gt;""),"home/domo/espIR01/event","")</f>
         <v>home/domo/espIR01/event</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I28" si="3">G4</f>
+        <f t="shared" ref="I4:I34" si="3">G4</f>
         <v>rxIR proto=4 code=811 (12 bits)</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ref="J4:J28" si="4">IF(E4&lt;&gt;"",E4,"")</f>
+        <f t="shared" ref="J4:J34" si="4">IF(E4&lt;&gt;"",E4,"")</f>
         <v>salon.2.on</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K28" si="5">IF(E4&lt;&gt;"","{'comment':'"&amp;F4&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H4&amp;"', 'payload':'"&amp;I4&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J4&amp;"'}},","")</f>
+        <f t="shared" ref="K4:K34" si="5">IF(E4&lt;&gt;"","{'comment':'"&amp;F4&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H4&amp;"', 'payload':'"&amp;I4&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J4&amp;"'}},","")</f>
         <v>{'comment':'rxir sony 2-&gt;salon.2.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=811 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.2.on'}},</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>19</v>
       </c>
@@ -1212,7 +1215,7 @@
         <v>{'comment':'rxir sony 3-&gt;salon.3.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=411 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.3.on'}},</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -1247,7 +1250,7 @@
         <v>{'comment':'rxir sony 4-&gt;salon.1.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=c11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.1.off'}},</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>{'comment':'rxir sony 5-&gt;salon.2.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=211 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.2.off'}},</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>22</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>{'comment':'rxir sony 6-&gt;salon.3.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=a11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.3.off'}},</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>{'comment':'rxir sony 7-&gt;salon.4.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=611 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.4.on'}},</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1387,12 +1390,12 @@
         <v>{'comment':'rxir sony 8-&gt;salon.5.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=e11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.5.on'}},</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1422,9 +1425,9 @@
         <v>{'comment':'rxir sony &gt;10-&gt;salon.4.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=e51 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.4.off'}},</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C12" s="3">
         <v>51</v>
@@ -1457,7 +1460,7 @@
         <v>{'comment':'rxir sony 10-&gt;salon.5.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=51 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.5.off'}},</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1492,12 +1495,12 @@
         <v>{'comment':'rxir sony 9-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=111 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
         <v>51</v>
@@ -1527,12 +1530,12 @@
         <v>{'comment':'rxir sony clear-&gt;salon.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=f11 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.off'}},</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" s="3">
-        <v>111</v>
+        <v>491</v>
       </c>
       <c r="E15" t="s">
         <v>44</v>
@@ -1543,7 +1546,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>rxIR proto=4 code=111 (12 bits)</v>
+        <v>rxIR proto=4 code=491 (12 bits)</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="2"/>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="3"/>
-        <v>rxIR proto=4 code=111 (12 bits)</v>
+        <v>rxIR proto=4 code=491 (12 bits)</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="4"/>
@@ -1559,10 +1562,10 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxir sony plus-&gt;ampli.volp', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=111 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.volp'}},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+        <v>{'comment':'rxir sony plus-&gt;ampli.volp', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=491 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.volp'}},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>{'comment':'rxir sony minus-&gt;ampli.volm', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=c91 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.volm'}},</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>{'comment':'rxir sony play-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=4d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>38</v>
       </c>
@@ -1667,7 +1670,7 @@
         <v>{'comment':'rxir sony pause-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=9d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>39</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>{'comment':'rxir sony stop-&gt;ampli.mute', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=1d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.mute'}},</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>40</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>{'comment':'rxir sony prev-&gt;ampli.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.off'}},</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>41</v>
       </c>
@@ -1772,7 +1775,7 @@
         <v>{'comment':'rxir sony next-&gt;ampli.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=8d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'ampli.on'}},</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1810,7 @@
         <v>{'comment':'rxir sony fbw-&gt;salon.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=cd1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.off'}},</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>43</v>
       </c>
@@ -1842,9 +1845,9 @@
         <v>{'comment':'rxir sony ffw-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxIR proto=4 code=2d1 (12 bits)', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
@@ -1871,413 +1874,248 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>150</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>rxrf rf.b4.on-&gt;tvon</v>
-      </c>
-      <c r="G25" t="str">
-        <f>IF(C25&lt;&gt;"","rxIR proto=4 code="&amp;C25&amp;" (12 bits)",IF(D25&lt;&gt;"","rxRF 1 "&amp;D25,""))</f>
+      <c r="E31" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>rxrf rf.b4.on-&gt;vpstudio.on</v>
+      </c>
+      <c r="G31" t="str">
+        <f>IF(C31&lt;&gt;"","rxIR proto=4 code="&amp;C31&amp;" (12 bits)",IF(D31&lt;&gt;"","rxRF 1 "&amp;D31,""))</f>
         <v>rxRF 1 7fd514</v>
       </c>
-      <c r="H25" t="str">
+      <c r="H31" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I25" t="str">
+      <c r="I31" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd514</v>
       </c>
-      <c r="J25" t="str">
+      <c r="J31" t="str">
         <f t="shared" si="4"/>
-        <v>tvon</v>
-      </c>
-      <c r="K25" t="str">
+        <v>vpstudio.on</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxrf rf.b4.on-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd514', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+        <v>{'comment':'rxrf rf.b4.on-&gt;vpstudio.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd514', 'command':{'type':'cmdCommand', 'id':'vpstudio.on'}},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>rxrf rf.b4.off-&gt;tvoff</v>
-      </c>
-      <c r="G26" t="str">
-        <f t="shared" ref="G26:G39" si="12">IF(C26&lt;&gt;"","rxIR proto=4 code="&amp;C26&amp;" (12 bits)",IF(D26&lt;&gt;"","rxRF 1 "&amp;D26,""))</f>
+      <c r="E32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>rxrf rf.b4.off-&gt;vpstudio.off</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ref="G32:G34" si="12">IF(C32&lt;&gt;"","rxIR proto=4 code="&amp;C32&amp;" (12 bits)",IF(D32&lt;&gt;"","rxRF 1 "&amp;D32,""))</f>
         <v>rxRF 1 7fd511</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H32" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd511</v>
       </c>
-      <c r="J26" t="str">
+      <c r="J32" t="str">
         <f t="shared" si="4"/>
-        <v>tvoff</v>
-      </c>
-      <c r="K26" t="str">
+        <v>vpstudio.off</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxrf rf.b4.off-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd511', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+        <v>{'comment':'rxrf rf.b4.off-&gt;vpstudio.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd511', 'command':{'type':'cmdCommand', 'id':'vpstudio.off'}},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E27" t="s">
-        <v>207</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>rxrf rf.b5.on-&gt;sonOff01.on</v>
-      </c>
-      <c r="G27" t="str">
+      <c r="E33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>rxrf rf.b5.on-&gt;preamp.mute</v>
+      </c>
+      <c r="G33" t="str">
         <f t="shared" si="12"/>
         <v>rxRF 1 7fd544</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H33" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd544</v>
       </c>
-      <c r="J27" t="str">
+      <c r="J33" t="str">
         <f t="shared" si="4"/>
-        <v>sonOff01.on</v>
-      </c>
-      <c r="K27" t="str">
+        <v>preamp.mute</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxrf rf.b5.on-&gt;sonOff01.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd544', 'command':{'type':'cmdCommand', 'id':'sonOff01.on'}},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+        <v>{'comment':'rxrf rf.b5.on-&gt;preamp.mute', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd544', 'command':{'type':'cmdCommand', 'id':'preamp.mute'}},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E28" t="s">
-        <v>208</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>rxrf rf.b5.off-&gt;sonOff01.off</v>
-      </c>
-      <c r="G28" t="str">
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>rxrf rf.b5.off-&gt;</v>
+      </c>
+      <c r="G34" t="str">
         <f t="shared" si="12"/>
         <v>rxRF 1 7fd541</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H34" t="str">
         <f t="shared" si="2"/>
         <v>home/domo/espIR01/event</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I34" t="str">
         <f t="shared" si="3"/>
         <v>rxRF 1 7fd541</v>
       </c>
-      <c r="J28" t="str">
+      <c r="J34" t="str">
         <f t="shared" si="4"/>
-        <v>sonOff01.off</v>
-      </c>
-      <c r="K28" t="str">
+        <v/>
+      </c>
+      <c r="K34" t="str">
         <f t="shared" si="5"/>
-        <v>{'comment':'rxrf rf.b5.off-&gt;sonOff01.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 7fd541', 'command':{'type':'cmdCommand', 'id':'sonOff01.off'}},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>210</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ref="F36:F43" si="13">IF(B36&lt;&gt;"",B36&amp;"-&gt;"&amp;E36,"")</f>
+        <v>rf.d.1.on-&gt;tvon</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ref="G36:G45" si="14">IF(C36&lt;&gt;"","rxIR proto=4 code="&amp;C36&amp;" (12 bits)",IF(D36&lt;&gt;"","rxRF 1 "&amp;D36,""))</f>
+        <v>rxRF 1 dfc554</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ref="H36:H45" si="15">IF(OR(C36&lt;&gt;"", D36&lt;&gt;""),"home/domo/espIR01/event","")</f>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" ref="I36:I45" si="16">G36</f>
+        <v>rxRF 1 dfc554</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36:J45" si="17">IF(E36&lt;&gt;"",E36,"")</f>
+        <v>tvon</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" ref="K36:K45" si="18">IF(E36&lt;&gt;"","{'comment':'"&amp;F36&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H36&amp;"', 'payload':'"&amp;I36&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J36&amp;"'}},","")</f>
+        <v>{'comment':'rf.d.1.on-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfc554', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" ref="F30:F37" si="13">IF(B30&lt;&gt;"",B30&amp;"-&gt;"&amp;E30,"")</f>
-        <v>rf.d.1.on-&gt;tvon</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" ref="G30:G39" si="14">IF(C30&lt;&gt;"","rxIR proto=4 code="&amp;C30&amp;" (12 bits)",IF(D30&lt;&gt;"","rxRF 1 "&amp;D30,""))</f>
-        <v>rxRF 1 dfc554</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" ref="H30:H39" si="15">IF(OR(C30&lt;&gt;"", D30&lt;&gt;""),"home/domo/espIR01/event","")</f>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" ref="I30:I39" si="16">G30</f>
-        <v>rxRF 1 dfc554</v>
-      </c>
-      <c r="J30" t="str">
-        <f t="shared" ref="J30:J39" si="17">IF(E30&lt;&gt;"",E30,"")</f>
-        <v>tvon</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" ref="K30:K39" si="18">IF(E30&lt;&gt;"","{'comment':'"&amp;F30&amp;"', 'type':'trgMqtt'," &amp;" 'topic':'"&amp;H30&amp;"', 'payload':'"&amp;I30&amp;"', 'command':{'type':'cmdCommand', 'id':'"&amp;J30&amp;"'}},","")</f>
-        <v>{'comment':'rf.d.1.on-&gt;tvon', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfc554', 'command':{'type':'cmdCommand', 'id':'tvon'}},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E37" t="s">
         <v>48</v>
       </c>
-      <c r="F31" t="str">
+      <c r="F37" t="str">
         <f t="shared" si="13"/>
         <v>rf.d.1.off-&gt;tvoff</v>
       </c>
-      <c r="G31" t="str">
+      <c r="G37" t="str">
         <f t="shared" si="14"/>
         <v>rxRF 1 dfc551</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="15"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="16"/>
-        <v>rxRF 1 dfc551</v>
-      </c>
-      <c r="J31" t="str">
-        <f t="shared" si="17"/>
-        <v>tvoff</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.1.off-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfc551', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" t="str">
-        <f t="shared" si="13"/>
-        <v>rf.d.2.on-&gt;hdmi.1</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="14"/>
-        <v>rxRF 1 dfd154</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="15"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="16"/>
-        <v>rxRF 1 dfd154</v>
-      </c>
-      <c r="J32" t="str">
-        <f t="shared" si="17"/>
-        <v>hdmi.1</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.2.on-&gt;hdmi.1', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd154', 'command':{'type':'cmdCommand', 'id':'hdmi.1'}},</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" t="str">
-        <f t="shared" si="13"/>
-        <v>rf.d.2.off-&gt;hdmi.2</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="14"/>
-        <v>rxRF 1 dfd151</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="15"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="16"/>
-        <v>rxRF 1 dfd151</v>
-      </c>
-      <c r="J33" t="str">
-        <f t="shared" si="17"/>
-        <v>hdmi.2</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.2.off-&gt;hdmi.2', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd151', 'command':{'type':'cmdCommand', 'id':'hdmi.2'}},</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>217</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="str">
-        <f t="shared" si="13"/>
-        <v>rf.d.3.on-&gt;hdmi.3</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="14"/>
-        <v>rxRF 1 dfd454</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="15"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="16"/>
-        <v>rxRF 1 dfd454</v>
-      </c>
-      <c r="J34" t="str">
-        <f t="shared" si="17"/>
-        <v>hdmi.3</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.3.on-&gt;hdmi.3', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd454', 'command':{'type':'cmdCommand', 'id':'hdmi.3'}},</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>218</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" t="str">
-        <f t="shared" si="13"/>
-        <v>rf.d.3.off-&gt;hdmi.4</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="14"/>
-        <v>rxRF 1 dfd451</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="15"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I35" t="str">
-        <f t="shared" si="16"/>
-        <v>rxRF 1 dfd451</v>
-      </c>
-      <c r="J35" t="str">
-        <f t="shared" si="17"/>
-        <v>hdmi.4</v>
-      </c>
-      <c r="K35" t="str">
-        <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.3.off-&gt;hdmi.4', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd451', 'command':{'type':'cmdCommand', 'id':'hdmi.4'}},</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
-      </c>
-      <c r="F36" t="str">
-        <f t="shared" si="13"/>
-        <v>rf.d.4.on-&gt;hdmi.5</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="14"/>
-        <v>rxRF 1 dfd514</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="15"/>
-        <v>home/domo/espIR01/event</v>
-      </c>
-      <c r="I36" t="str">
-        <f t="shared" si="16"/>
-        <v>rxRF 1 dfd514</v>
-      </c>
-      <c r="J36" t="str">
-        <f t="shared" si="17"/>
-        <v>hdmi.5</v>
-      </c>
-      <c r="K36" t="str">
-        <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.4.on-&gt;hdmi.5', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd514', 'command':{'type':'cmdCommand', 'id':'hdmi.5'}},</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="13"/>
-        <v>rf.d.4.off-&gt;ampli.mute</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="14"/>
-        <v>rxRF 1 dfd511</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="15"/>
@@ -2285,34 +2123,34 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="16"/>
-        <v>rxRF 1 dfd511</v>
+        <v>rxRF 1 dfc551</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="17"/>
-        <v>ampli.mute</v>
+        <v>tvoff</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.4.off-&gt;ampli.mute', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd511', 'command':{'type':'cmdCommand', 'id':'ampli.mute'}},</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{'comment':'rf.d.1.off-&gt;tvoff', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfc551', 'command':{'type':'cmdCommand', 'id':'tvoff'}},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>rf.d.5.on-&gt;salon.on</v>
+        <f t="shared" si="13"/>
+        <v>rf.d.2.on-&gt;hdmi.1</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="14"/>
-        <v>rxRF 1 dfd544</v>
+        <v>rxRF 1 dfd154</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="15"/>
@@ -2320,34 +2158,34 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="16"/>
-        <v>rxRF 1 dfd544</v>
+        <v>rxRF 1 dfd154</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="17"/>
-        <v>salon.on</v>
+        <v>hdmi.1</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="18"/>
-        <v>{'comment':'rf.d.5.on-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd544', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>{'comment':'rf.d.2.on-&gt;hdmi.1', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd154', 'command':{'type':'cmdCommand', 'id':'hdmi.1'}},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>223</v>
+        <v>175</v>
       </c>
       <c r="E39" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>rf.d.5.off-&gt;salon.off</v>
+        <f t="shared" si="13"/>
+        <v>rf.d.2.off-&gt;hdmi.2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="14"/>
-        <v>rxRF 1 dfd541</v>
+        <v>rxRF 1 dfd151</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="15"/>
@@ -2355,419 +2193,629 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="16"/>
-        <v>rxRF 1 dfd541</v>
+        <v>rxRF 1 dfd151</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="17"/>
-        <v>salon.off</v>
+        <v>hdmi.2</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.2.off-&gt;hdmi.2', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd151', 'command':{'type':'cmdCommand', 'id':'hdmi.2'}},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.3.on-&gt;hdmi.3</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd454</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd454</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.3</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.3.on-&gt;hdmi.3', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd454', 'command':{'type':'cmdCommand', 'id':'hdmi.3'}},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.3.off-&gt;hdmi.4</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd451</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd451</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.4</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.3.off-&gt;hdmi.4', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd451', 'command':{'type':'cmdCommand', 'id':'hdmi.4'}},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.4.on-&gt;hdmi.5</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd514</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd514</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="17"/>
+        <v>hdmi.5</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.4.on-&gt;hdmi.5', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd514', 'command':{'type':'cmdCommand', 'id':'hdmi.5'}},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="13"/>
+        <v>rf.d.4.off-&gt;ampli.mute</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd511</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd511</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="17"/>
+        <v>ampli.mute</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.4.off-&gt;ampli.mute', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd511', 'command':{'type':'cmdCommand', 'id':'ampli.mute'}},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>rf.d.5.on-&gt;salon.on</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd544</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd544</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="17"/>
+        <v>salon.on</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="18"/>
+        <v>{'comment':'rf.d.5.on-&gt;salon.on', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd544', 'command':{'type':'cmdCommand', 'id':'salon.on'}},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>219</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>rf.d.5.off-&gt;salon.off</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="14"/>
+        <v>rxRF 1 dfd541</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="15"/>
+        <v>home/domo/espIR01/event</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="16"/>
+        <v>rxRF 1 dfd541</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="17"/>
+        <v>salon.off</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="18"/>
         <v>{'comment':'rf.d.5.off-&gt;salon.off', 'type':'trgMqtt', 'topic':'home/domo/espIR01/event', 'payload':'rxRF 1 dfd541', 'command':{'type':'cmdCommand', 'id':'salon.off'}},</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D50" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D51" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D52" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D53" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
         <v>136</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
         <v>142</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D57" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
         <v>144</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
         <v>148</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D60" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
         <v>150</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D61" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D62" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>154</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
         <v>155</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>156</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
         <v>157</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
         <v>158</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>160</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>161</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>162</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
         <v>164</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D73" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
         <v>165</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
         <v>166</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>167</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>168</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
         <v>170</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
         <v>172</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>176</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>178</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>182</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>184</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>186</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="D86" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
         <v>187</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
         <v>189</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D88" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
         <v>191</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
         <v>193</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D90" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
         <v>195</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
         <v>197</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
         <v>199</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D93" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
         <v>201</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
         <v>205</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2785,14 +2833,14 @@
       <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="6.7109375" style="6" customWidth="1"/>
-    <col min="4" max="6" width="9.5703125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" style="5" customWidth="1"/>
+    <col min="1" max="3" width="6.6640625" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
